--- a/nmadb/481150.xlsx
+++ b/nmadb/481150.xlsx
@@ -1,6 +1,301 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21255" windowHeight="9990"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="124519"/>
+</workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stagiaire_2018</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">SMS:
+This is the n randomized.  Is different from the n reported with the VTE - not sure which you want to use (see suplement 1, tables 2 and 3)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassen, 2007 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassen, 2009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ginsberg, 2009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turpie, 2009 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heit, 2001 </t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colwell, 2003 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bauer, 2001 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turpie, 2002 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassen, 2012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levine, 1991 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colwell, 1994 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colwell, 1995 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turpie, 1986 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leclerc, 1992 </t>
+  </si>
+  <si>
+    <t>Lassen, 2010 a</t>
+  </si>
+  <si>
+    <t>Lassen, 2010 b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eriksson, 2007  24 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eriksson, 2007  25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eriksson, 2011 </t>
+  </si>
+  <si>
+    <t>Eriksson, 2006</t>
+  </si>
+  <si>
+    <t>Eriksson, 2008</t>
+  </si>
+  <si>
+    <t>Lassen, 2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eriksson, 2003  30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eriksson, 2003  31 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eriksson, 2001 </t>
+  </si>
+  <si>
+    <t>Lassen, 2002</t>
+  </si>
+  <si>
+    <t>Bonneux, 2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassen, 2012  17 </t>
+  </si>
+  <si>
+    <t>Plane?s, 1988</t>
+  </si>
+  <si>
+    <t>Fauno, 1994</t>
+  </si>
+  <si>
+    <t>Perhoniemi, 1996</t>
+  </si>
+  <si>
+    <t>Rader, 1998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avikainen, 1995 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senaran, 2006 </t>
+  </si>
+  <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Kalodiki</t>
+  </si>
+  <si>
+    <t>Samama</t>
+  </si>
+  <si>
+    <t>Fuji</t>
+  </si>
+  <si>
+    <t>Harm</t>
+  </si>
+  <si>
+    <t>Outcome: VTE (definition 1)</t>
+  </si>
+  <si>
+    <t>Treatments</t>
+  </si>
+  <si>
+    <t>Enoxaparin 3000</t>
+  </si>
+  <si>
+    <t>Enoxaparin 4000</t>
+  </si>
+  <si>
+    <t>Apixaban</t>
+  </si>
+  <si>
+    <t>Dabigatran 150mg</t>
+  </si>
+  <si>
+    <t>Dabigatran 220mg</t>
+  </si>
+  <si>
+    <t>Rivoraxaban</t>
+  </si>
+  <si>
+    <t>ximelagatran</t>
+  </si>
+  <si>
+    <t>fondaparinux</t>
+  </si>
+  <si>
+    <t>semuloparin</t>
+  </si>
+  <si>
+    <t>UFH</t>
+  </si>
+  <si>
+    <t>placebo/no treatment</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -74,7 +369,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -109,7 +403,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -144,16 +437,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -275,50 +572,1659 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>2007</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>152</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>153</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
+        <v>2009</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>1596</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>1599</v>
+      </c>
+      <c r="J5" s="3">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>2009</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>876</v>
+      </c>
+      <c r="J6" s="3">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>877</v>
+      </c>
+      <c r="J7" s="3">
+        <v>6</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>876</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>862</v>
+      </c>
+      <c r="J9" s="3">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>2009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>1564</v>
+      </c>
+      <c r="J10" s="3">
+        <v>9</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>1584</v>
+      </c>
+      <c r="J11" s="3">
+        <v>10</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
+        <v>2001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <v>125</v>
+      </c>
+      <c r="J12" s="3">
+        <v>11</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
+        <v>2003</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
+        <v>2001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>2002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>24</v>
+      </c>
+      <c r="F19">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>24</v>
+      </c>
+      <c r="F20">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1991</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1994</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="F25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>1995</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>1986</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>1992</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>16</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>33</v>
+      </c>
+      <c r="F32">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2010</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="C35">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2007</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>22</v>
+      </c>
+      <c r="F37">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2007</v>
+      </c>
+      <c r="B38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+      <c r="F38">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2007</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>25</v>
+      </c>
+      <c r="F40">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2007</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>36</v>
+      </c>
+      <c r="F42">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>28</v>
+      </c>
+      <c r="F43">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>2011</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>22</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>33</v>
+      </c>
+      <c r="F44">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2006</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2008</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48">
+        <v>24</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>42</v>
+      </c>
+      <c r="F48">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="C49">
+        <v>24</v>
+      </c>
+      <c r="D49">
+        <v>6</v>
+      </c>
+      <c r="E49">
+        <v>7</v>
+      </c>
+      <c r="F49">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>2008</v>
+      </c>
+      <c r="B50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>44</v>
+      </c>
+      <c r="F50">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="C51">
+        <v>25</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>17</v>
+      </c>
+      <c r="F51">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>2003</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52">
+        <v>26</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>88</v>
+      </c>
+      <c r="F52">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>79</v>
+      </c>
+      <c r="F53">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>2003</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <v>27</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="C55">
+        <v>27</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>2001</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56">
+        <v>28</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <v>32</v>
+      </c>
+      <c r="F56">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="C57">
+        <v>28</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>2002</v>
+      </c>
+      <c r="B58" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58">
+        <v>29</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>26</v>
+      </c>
+      <c r="F58">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="C59">
+        <v>29</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>2006</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>2012</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62">
+        <v>31</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>21</v>
+      </c>
+      <c r="F62">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="C63">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
+      </c>
+      <c r="E63">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>2012</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64">
+        <v>32</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+      <c r="F64">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="C65">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>22</v>
+      </c>
+      <c r="F65">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>1988</v>
+      </c>
+      <c r="B66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66">
+        <v>33</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="C67">
+        <v>33</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>1994</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68">
+        <v>34</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="C69">
+        <v>34</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>1994</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>35</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="C71">
+        <v>35</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>1996</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72">
+        <v>36</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="C73">
+        <v>36</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>1998</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74">
+        <v>37</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="C75">
+        <v>37</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>1995</v>
+      </c>
+      <c r="B76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76">
+        <v>38</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="C77">
+        <v>38</v>
+      </c>
+      <c r="D77">
+        <v>10</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>2006</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78">
+        <v>39</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="C79">
+        <v>39</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2">
+        <v>1995</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2">
+        <v>11</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2">
+        <v>1996</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="2">
+        <v>41</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2">
+        <v>41</v>
+      </c>
+      <c r="D83" s="2">
+        <v>11</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2">
+        <v>1997</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="2">
+        <v>42</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2">
+        <v>42</v>
+      </c>
+      <c r="D85" s="2">
+        <v>11</v>
+      </c>
+      <c r="E85" s="2">
+        <v>13</v>
+      </c>
+      <c r="F85" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" s="2">
+        <v>43</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2">
+        <v>43</v>
+      </c>
+      <c r="D87" s="2">
+        <v>11</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2">
+        <v>44</v>
+      </c>
+      <c r="D89" s="2">
+        <v>11</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="2">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>